--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dlk1</t>
   </si>
   <si>
     <t>Notch3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1167573333333333</v>
+        <v>0.506144</v>
       </c>
       <c r="H2">
-        <v>0.350272</v>
+        <v>1.518432</v>
       </c>
       <c r="I2">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="J2">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N2">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q2">
-        <v>0.4301763599928889</v>
+        <v>1.594940052181334</v>
       </c>
       <c r="R2">
-        <v>3.871587239936</v>
+        <v>14.354460469632</v>
       </c>
       <c r="S2">
-        <v>2.553975752599603E-05</v>
+        <v>8.498491177837021E-05</v>
       </c>
       <c r="T2">
-        <v>2.553975752599603E-05</v>
+        <v>8.49849117783702E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1167573333333333</v>
+        <v>0.506144</v>
       </c>
       <c r="H3">
-        <v>0.350272</v>
+        <v>1.518432</v>
       </c>
       <c r="I3">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="J3">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N3">
         <v>15.114731</v>
       </c>
       <c r="O3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q3">
-        <v>0.5882518952035555</v>
+        <v>2.550076802421334</v>
       </c>
       <c r="R3">
-        <v>5.294267056831999</v>
+        <v>22.950691221792</v>
       </c>
       <c r="S3">
-        <v>3.492477077995358E-05</v>
+        <v>0.000135878493856524</v>
       </c>
       <c r="T3">
-        <v>3.492477077995358E-05</v>
+        <v>0.000135878493856524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1167573333333333</v>
+        <v>0.506144</v>
       </c>
       <c r="H4">
-        <v>0.350272</v>
+        <v>1.518432</v>
       </c>
       <c r="I4">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="J4">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N4">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q4">
-        <v>9.805587535928888</v>
+        <v>47.026668610016</v>
       </c>
       <c r="R4">
-        <v>88.25028782336</v>
+        <v>423.240017490144</v>
       </c>
       <c r="S4">
-        <v>0.0005821619953074422</v>
+        <v>0.002505772726433784</v>
       </c>
       <c r="T4">
-        <v>0.0005821619953074422</v>
+        <v>0.002505772726433784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1167573333333333</v>
+        <v>0.506144</v>
       </c>
       <c r="H5">
-        <v>0.350272</v>
+        <v>1.518432</v>
       </c>
       <c r="I5">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="J5">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N5">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q5">
-        <v>0.01134492088888889</v>
+        <v>0.03504979714133333</v>
       </c>
       <c r="R5">
-        <v>0.102104288</v>
+        <v>0.315448174272</v>
       </c>
       <c r="S5">
-        <v>6.735528857481135E-07</v>
+        <v>1.867596160640731E-06</v>
       </c>
       <c r="T5">
-        <v>6.735528857481135E-07</v>
+        <v>1.867596160640731E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>522.552765</v>
       </c>
       <c r="I6">
-        <v>0.9597062674131449</v>
+        <v>0.9389865120723476</v>
       </c>
       <c r="J6">
-        <v>0.959706267413145</v>
+        <v>0.9389865120723477</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N6">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q6">
-        <v>641.7579662431467</v>
+        <v>548.8822247401267</v>
       </c>
       <c r="R6">
-        <v>5775.821696188321</v>
+        <v>4939.940022661141</v>
       </c>
       <c r="S6">
-        <v>0.03810144948108552</v>
+        <v>0.02924668383771445</v>
       </c>
       <c r="T6">
-        <v>0.03810144948108553</v>
+        <v>0.02924668383771444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>522.552765</v>
       </c>
       <c r="I7">
-        <v>0.9597062674131449</v>
+        <v>0.9389865120723476</v>
       </c>
       <c r="J7">
-        <v>0.959706267413145</v>
+        <v>0.9389865120723477</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N7">
         <v>15.114731</v>
       </c>
       <c r="O7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q7">
-        <v>877.5827195868017</v>
+        <v>877.5827195868018</v>
       </c>
       <c r="R7">
-        <v>7898.244476281215</v>
+        <v>7898.244476281217</v>
       </c>
       <c r="S7">
-        <v>0.05210246761960977</v>
+        <v>0.04676118698022839</v>
       </c>
       <c r="T7">
-        <v>0.05210246761960977</v>
+        <v>0.04676118698022838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>522.552765</v>
       </c>
       <c r="I8">
-        <v>0.9597062674131449</v>
+        <v>0.9389865120723476</v>
       </c>
       <c r="J8">
-        <v>0.959706267413145</v>
+        <v>0.9389865120723477</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N8">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q8">
-        <v>14628.45125887647</v>
+        <v>16183.74462004394</v>
       </c>
       <c r="R8">
-        <v>131656.0613298882</v>
+        <v>145653.7015803955</v>
       </c>
       <c r="S8">
-        <v>0.8684975114363152</v>
+        <v>0.8623359272325413</v>
       </c>
       <c r="T8">
-        <v>0.8684975114363153</v>
+        <v>0.8623359272325414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>522.552765</v>
       </c>
       <c r="I9">
-        <v>0.9597062674131449</v>
+        <v>0.9389865120723476</v>
       </c>
       <c r="J9">
-        <v>0.959706267413145</v>
+        <v>0.9389865120723477</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N9">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q9">
-        <v>16.92490344416667</v>
+        <v>12.06202741307667</v>
       </c>
       <c r="R9">
-        <v>152.3241309975</v>
+        <v>108.55824671769</v>
       </c>
       <c r="S9">
-        <v>0.001004838876134563</v>
+        <v>0.0006427140218634738</v>
       </c>
       <c r="T9">
-        <v>0.001004838876134564</v>
+        <v>0.0006427140218634737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.196452999999999</v>
+        <v>10.788518</v>
       </c>
       <c r="H10">
-        <v>21.589359</v>
+        <v>32.365554</v>
       </c>
       <c r="I10">
-        <v>0.03965043251035593</v>
+        <v>0.05815837308171015</v>
       </c>
       <c r="J10">
-        <v>0.03965043251035594</v>
+        <v>0.05815837308171016</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N10">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q10">
-        <v>26.51434276562133</v>
+        <v>33.99633199618933</v>
       </c>
       <c r="R10">
-        <v>238.629084890592</v>
+        <v>305.966987965704</v>
       </c>
       <c r="S10">
-        <v>0.001574168057971177</v>
+        <v>0.001811463240598246</v>
       </c>
       <c r="T10">
-        <v>0.001574168057971177</v>
+        <v>0.001811463240598246</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.196452999999999</v>
+        <v>10.788518</v>
       </c>
       <c r="H11">
-        <v>21.589359</v>
+        <v>32.365554</v>
       </c>
       <c r="I11">
-        <v>0.03965043251035593</v>
+        <v>0.05815837308171015</v>
       </c>
       <c r="J11">
-        <v>0.03965043251035594</v>
+        <v>0.05815837308171016</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N11">
         <v>15.114731</v>
       </c>
       <c r="O11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q11">
-        <v>36.25748374971432</v>
+        <v>54.35518248621933</v>
       </c>
       <c r="R11">
-        <v>326.317353747429</v>
+        <v>489.196642375974</v>
       </c>
       <c r="S11">
-        <v>0.002152622574345445</v>
+        <v>0.002896265838939113</v>
       </c>
       <c r="T11">
-        <v>0.002152622574345445</v>
+        <v>0.002896265838939113</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.196452999999999</v>
+        <v>10.788518</v>
       </c>
       <c r="H12">
-        <v>21.589359</v>
+        <v>32.365554</v>
       </c>
       <c r="I12">
-        <v>0.03965043251035593</v>
+        <v>0.05815837308171015</v>
       </c>
       <c r="J12">
-        <v>0.03965043251035594</v>
+        <v>0.05815837308171016</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N12">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q12">
-        <v>604.3770256232132</v>
+        <v>1002.378889761002</v>
       </c>
       <c r="R12">
-        <v>5439.393230608919</v>
+        <v>9021.410007849017</v>
       </c>
       <c r="S12">
-        <v>0.03588212678389561</v>
+        <v>0.05341083597363584</v>
       </c>
       <c r="T12">
-        <v>0.03588212678389562</v>
+        <v>0.05341083597363585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.196452999999999</v>
+        <v>10.788518</v>
       </c>
       <c r="H13">
-        <v>21.589359</v>
+        <v>32.365554</v>
       </c>
       <c r="I13">
-        <v>0.03965043251035593</v>
+        <v>0.05815837308171015</v>
       </c>
       <c r="J13">
-        <v>0.03965043251035594</v>
+        <v>0.05815837308171016</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,276 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N13">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q13">
-        <v>0.6992553498333333</v>
+        <v>0.7470904868093332</v>
       </c>
       <c r="R13">
-        <v>6.293298148499999</v>
+        <v>6.723814381283999</v>
       </c>
       <c r="S13">
-        <v>4.151509414369976E-05</v>
+        <v>3.980802853694485E-05</v>
       </c>
       <c r="T13">
-        <v>4.151509414369977E-05</v>
+        <v>3.980802853694484E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="J14">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.151158666666667</v>
+      </c>
+      <c r="N14">
+        <v>9.453476</v>
+      </c>
+      <c r="O14">
+        <v>0.03114707555614071</v>
+      </c>
+      <c r="P14">
+        <v>0.03114707555614071</v>
+      </c>
+      <c r="Q14">
+        <v>0.07401021321777779</v>
+      </c>
+      <c r="R14">
+        <v>0.66609191896</v>
+      </c>
+      <c r="S14">
+        <v>3.943566049651195E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.943566049651194E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="J15">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.038243666666667</v>
+      </c>
+      <c r="N15">
+        <v>15.114731</v>
+      </c>
+      <c r="O15">
+        <v>0.04979963650066307</v>
+      </c>
+      <c r="P15">
+        <v>0.04979963650066306</v>
+      </c>
+      <c r="Q15">
+        <v>0.1183315495844445</v>
+      </c>
+      <c r="R15">
+        <v>1.06498394626</v>
+      </c>
+      <c r="S15">
+        <v>6.3051876390452E-06</v>
+      </c>
+      <c r="T15">
+        <v>6.305187639045199E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="J16">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>92.91163899999999</v>
+      </c>
+      <c r="N16">
+        <v>278.734917</v>
+      </c>
+      <c r="O16">
+        <v>0.9183688116343246</v>
+      </c>
+      <c r="P16">
+        <v>0.9183688116343246</v>
+      </c>
+      <c r="Q16">
+        <v>2.182184694646666</v>
+      </c>
+      <c r="R16">
+        <v>19.63966225182</v>
+      </c>
+      <c r="S16">
+        <v>0.0001162757017136917</v>
+      </c>
+      <c r="T16">
+        <v>0.0001162757017136917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="J17">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.06924866666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.207746</v>
+      </c>
+      <c r="O17">
+        <v>0.0006844763088715736</v>
+      </c>
+      <c r="P17">
+        <v>0.0006844763088715734</v>
+      </c>
+      <c r="Q17">
+        <v>0.001626420351111111</v>
+      </c>
+      <c r="R17">
+        <v>0.01463778316</v>
+      </c>
+      <c r="S17">
+        <v>8.666231051423172E-08</v>
+      </c>
+      <c r="T17">
+        <v>8.66623105142317E-08</v>
       </c>
     </row>
   </sheetData>
